--- a/source_code/data/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0654242086146325</v>
+        <v>0.05473714651097686</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03699767743582363</v>
+        <v>0.0065664</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1693784259223226</v>
+        <v>0.1909277580357632</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374917</v>
+        <v>0.2494892361374984</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.960670346818109</v>
+        <v>5.015662739180178</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1643734473701072</v>
+        <v>0.2288035378641588</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08939470000000002</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.466527585717007</v>
+        <v>0.4612504419642366</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.17845595708904</v>
+        <v>9.302258840137004</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2217761931645438</v>
+        <v>0.158268327264195</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3086251116393296</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9510271291123844</v>
+        <v>0.7071155705653891</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.85529527126601</v>
+        <v>17.72828669003733</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/results/[1_high_electricity_price]_#_inv_capacity.xlsx
+++ b/source_code/data/results/[1_high_electricity_price]_#_inv_capacity.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1909277580357632</v>
+        <v>0.1909277580357634</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374984</v>
+        <v>0.2494892361374957</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.015662739180178</v>
+        <v>5.015662739180184</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2288035378641588</v>
+        <v>0.2288035378641591</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4612504419642366</v>
+        <v>0.4612504419642365</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.302258840137004</v>
+        <v>9.302258840137009</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.158268327264195</v>
+        <v>0.1582683272642034</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7071155705653891</v>
+        <v>0.7071155705653867</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.72828669003733</v>
+        <v>17.72828669003717</v>
       </c>
     </row>
   </sheetData>
